--- a/seed-data/model-data.xlsx
+++ b/seed-data/model-data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25260" windowHeight="17140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25260" windowHeight="17140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="154">
   <si>
     <t>Contact</t>
   </si>
@@ -473,6 +473,18 @@
   </si>
   <si>
     <t>Listened to me vent on phone for 30 minutes</t>
+  </si>
+  <si>
+    <t>total frienergy</t>
+  </si>
+  <si>
+    <t>avg_t_btwn_ints</t>
+  </si>
+  <si>
+    <t>t_since_last_int</t>
+  </si>
+  <si>
+    <t>t_delta_since_last_int</t>
   </si>
 </sst>
 </file>
@@ -543,7 +555,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -554,6 +566,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -589,7 +610,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="34">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -618,6 +639,15 @@
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1024,28 +1054,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1077,10 +1109,16 @@
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>150</v>
+      </c>
+      <c r="L1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1103,11 +1141,11 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1130,11 +1168,11 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1155,11 +1193,11 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1183,10 +1221,10 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1210,10 +1248,10 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1237,10 +1275,10 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1272,10 +1310,14 @@
         <v>94062</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>37</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(Interaction!F9:F17)</f>
+        <v>5.1111111111111107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1303,10 +1345,14 @@
         <v>94062</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <f>AVERAGE(Interaction!F19:F21)</f>
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1336,10 +1382,14 @@
         <v>94062</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>21</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGE(Interaction!F23:F27)</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1371,10 +1421,14 @@
         <v>94303</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE(Interaction!F29:F30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1406,10 +1460,13 @@
         <v>94303</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1426,10 +1483,14 @@
         <v>122</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE(Interaction!F35:F41)</f>
+        <v>5.4285714285714288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1446,10 +1507,10 @@
         <v>127</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1466,10 +1527,10 @@
         <v>136</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1489,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -1503,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1520,10 +1581,14 @@
         <v>143</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>51</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGE(Interaction!F44:F45)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1537,10 +1602,10 @@
         <v>145</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1554,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1574,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1586,6 +1651,7 @@
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1604,59 +1670,68 @@
       <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7">
-        <v>42455</v>
+        <v>42496</v>
       </c>
       <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7">
-        <v>42455</v>
+        <v>42496</v>
       </c>
       <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>42455</v>
+        <v>42496</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1664,16 +1739,19 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>42462</v>
+        <v>42495</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1681,34 +1759,39 @@
         <v>1</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>42496</v>
+      </c>
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
-        <v>42464</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>42464</v>
+        <v>42496</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1716,16 +1799,19 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>42466</v>
+        <v>42455</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1736,15 +1822,18 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>42470</v>
+        <v>42464</v>
       </c>
       <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <f>D9-D8</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
@@ -1754,31 +1843,38 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>42471</v>
+        <v>42470</v>
       </c>
       <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ref="F10:F17" si="0">D10-D9</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>42473</v>
+        <v>42471</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1797,7 +1893,10 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
@@ -1815,7 +1914,10 @@
       <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
@@ -1833,23 +1935,30 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7">
-        <v>42483</v>
+        <v>42492</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1857,16 +1966,20 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>42483</v>
+        <v>42497</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1874,15 +1987,19 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>42485</v>
+        <v>42501</v>
       </c>
       <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1891,16 +2008,19 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>42490</v>
+        <v>42455</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1908,52 +2028,62 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>42492</v>
+        <v>42483</v>
       </c>
       <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>D19-D18</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7">
-        <v>42492</v>
+        <v>42500</v>
       </c>
       <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f>D20-D19</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D21" s="7">
-        <v>42492</v>
+        <v>42501</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f>D21-D20</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1961,16 +2091,19 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>42492</v>
+        <v>42455</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1978,10 +2111,10 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7">
         <v>42492</v>
@@ -1989,22 +2122,30 @@
       <c r="E23">
         <v>3</v>
       </c>
+      <c r="F23" s="2">
+        <f>D23-D22</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" s="7">
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <f>D24-D23</f>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2015,121 +2156,141 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>42495</v>
+        <v>42498</v>
       </c>
       <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <f>D25-D24</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D26" s="7">
-        <v>42496</v>
+        <v>42499</v>
       </c>
       <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <f>D26-D25</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>44</v>
+      </c>
+      <c r="D27" s="7">
+        <v>42501</v>
+      </c>
+      <c r="E27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27" s="7">
-        <v>42496</v>
-      </c>
-      <c r="E27">
-        <v>8</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <f>D27-D26</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D28" s="7">
-        <v>42496</v>
+        <v>42498</v>
       </c>
       <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D29" s="7">
-        <v>42496</v>
+        <v>42499</v>
       </c>
       <c r="E29">
-        <v>7</v>
-      </c>
-      <c r="F29" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <f>D29-D28</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>38</v>
+      </c>
+      <c r="D30" s="7">
+        <v>42500</v>
+      </c>
+      <c r="E30">
         <v>6</v>
       </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30" s="7">
-        <v>42496</v>
-      </c>
-      <c r="E30">
-        <v>7</v>
-      </c>
-      <c r="F30" s="2"/>
+      <c r="F30">
+        <f>D30-D29</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D31" s="7">
-        <v>42496</v>
+        <v>42492</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2137,34 +2298,40 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D32" s="7">
-        <v>42497</v>
+        <v>42500</v>
       </c>
       <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <f>D32-D31</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D33" s="7">
-        <v>42498</v>
+        <v>42500</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2172,16 +2339,19 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>42498</v>
+        <v>42462</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2189,16 +2359,20 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D35" s="7">
-        <v>42499</v>
+        <v>42464</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <f>D35-D34</f>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2206,15 +2380,19 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D36" s="7">
-        <v>42499</v>
+        <v>42466</v>
       </c>
       <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <f>D36-D35</f>
         <v>2</v>
       </c>
     </row>
@@ -2223,16 +2401,20 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D37" s="7">
-        <v>42499</v>
+        <v>42473</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <f>D37-D36</f>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2240,16 +2422,20 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D38" s="7">
-        <v>42500</v>
+        <v>42485</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <f>D38-D37</f>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2257,16 +2443,20 @@
         <v>1</v>
       </c>
       <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>17</v>
+      </c>
+      <c r="D39" s="7">
+        <v>42490</v>
+      </c>
+      <c r="E39">
         <v>10</v>
       </c>
-      <c r="C39">
-        <v>38</v>
-      </c>
-      <c r="D39" s="7">
-        <v>42500</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
+      <c r="F39">
+        <f>D39-D38</f>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2274,16 +2464,20 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D40" s="7">
-        <v>42500</v>
+        <v>42492</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <f>D40-D39</f>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2291,16 +2485,20 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D41" s="7">
         <v>42500</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <f>D41-D40</f>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2308,16 +2506,19 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D42" s="7">
-        <v>42500</v>
+        <v>42496</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2328,13 +2529,16 @@
         <v>17</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D43" s="7">
-        <v>42500</v>
+        <v>42483</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2342,34 +2546,41 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D44" s="7">
-        <v>42501</v>
+        <v>42492</v>
       </c>
       <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f>D44-D43</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" s="7">
-        <v>42501</v>
+        <v>42500</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <f>D45-D44</f>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2377,21 +2588,44 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D46" s="7">
-        <v>42501</v>
+        <v>42494</v>
       </c>
       <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>36</v>
+      </c>
+      <c r="D47" s="7">
+        <v>42499</v>
+      </c>
+      <c r="E47">
         <v>2</v>
       </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F47">
-    <sortCondition ref="D3:D47"/>
+  <sortState ref="A2:F46">
+    <sortCondition ref="B2:B46"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
